--- a/reports/color_errors.xlsx
+++ b/reports/color_errors.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>data\drug_photos\Famotidine 錠20mg tab\33.JPG</t>
+          <t>C:\Users\92102\OneDrive - NTHU\桌面\大三下\畢業專題\drug_photos\Famotidine 錠20mg tab\33.JPG</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
